--- a/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
+++ b/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
@@ -633,7 +633,7 @@
         <v>70</v>
       </c>
       <c r="I8">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">

--- a/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
+++ b/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,8 @@
           <t>0c345c9a2aa92abab556aa04441cf718</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B2">
+        <v>100</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -451,10 +449,8 @@
           <t>0c98f1ec78d51bf8d5d04f3590d673e9</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B3">
+        <v>100</v>
       </c>
       <c r="C3">
         <v>99.057</v>
@@ -477,10 +473,8 @@
           <t>0d61d4b7de48593109f5d112ed91948a</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B4">
+        <v>100</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -508,10 +502,8 @@
           <t>1186c621e048e637a49024762b3750e7</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B5">
+        <v>100</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -544,10 +536,8 @@
           <t>14f5a1d4993cbbaac9426a2ccb964d26</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B6">
+        <v>100</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -580,10 +570,8 @@
           <t>272b952bfc6e84de3e33447c805a19ae</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B7">
+        <v>100</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -616,10 +604,8 @@
           <t>282aac0ec13fc675ac82d31f2b3e70e9</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B8">
+        <v>100</v>
       </c>
       <c r="C8">
         <v>98.131</v>
@@ -647,10 +633,8 @@
           <t>30a623f128fb722f5fc16dbb86582d53</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B9">
+        <v>100</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -683,10 +667,8 @@
           <t>4c5905c5ab539613d9c3069d0ae54188</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B10">
+        <v>100</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -714,10 +696,8 @@
           <t>4db280926cca07cc86b0e098513d9cc0</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B11">
+        <v>100</v>
       </c>
       <c r="C11">
         <v>99.057</v>
@@ -740,10 +720,8 @@
           <t>4feb4cae27c142cc61d49716415710bb</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B12">
+        <v>100</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -776,10 +754,8 @@
           <t>505c903a58abea5138d3d0b6df05e746</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="B13">
+        <v>100</v>
       </c>
       <c r="C13">
         <v>99.057</v>
@@ -799,106 +775,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5fdb93bb9fb86c6d1332c023c15fd63d</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>100</t>
+          <t>5e733a21f67e541f28ed4bf4fe025044</t>
         </is>
       </c>
       <c r="C14">
-        <v>99.057</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Clupeidae sp</t>
-        </is>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="I14">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6a9c2d5770b6e78ca3450f62d67b08fc</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>5fdb93bb9fb86c6d1332c023c15fd63d</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>100</v>
       </c>
       <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Ammodytes dubius</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Ammodytes americanus;Ammodytes dubius</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Ammodytes americanus;Ammodytes dubius</t>
+        <v>99.057</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Clupeidae sp</t>
         </is>
       </c>
       <c r="H15">
-        <v>94388</v>
+        <v>145</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7950b1078efc076defba9c936b970ef7</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>6a9c2d5770b6e78ca3450f62d67b08fc</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>100</v>
       </c>
       <c r="C16">
         <v>100</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Ammodytes dubius</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ammodytes americanus;Ammodytes dubius</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>eukaryotic synthetic construct;Homo sapiens</t>
+          <t>Ammodytes americanus;Ammodytes dubius</t>
         </is>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>94388</v>
       </c>
       <c r="I16">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8726f0690748a0d7318c782029077e62</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>7950b1078efc076defba9c936b970ef7</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>100</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -914,538 +869,488 @@
         </is>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8961e2d14d8b0510763256de80a000a2</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>8726f0690748a0d7318c782029077e62</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>100</v>
       </c>
       <c r="C18">
         <v>100</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Clupeidae sp</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Alosa aestivalis;Alosa mediocris;Alosa alabamae;Alosa sapidissima;Alosa pseudoharengus;Alosa alosa</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alosa agone;Alosa chrysochloris;Brevoortia gunteri;Alosa pseudoharengus</t>
+          <t>eukaryotic synthetic construct;Homo sapiens</t>
         </is>
       </c>
       <c r="H18">
-        <v>2203</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>97f21bce91e9ef9f2fb711a011b1a9aa</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>8961e2d14d8b0510763256de80a000a2</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>99.057</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Ammodytes dubius</t>
+        <v>100</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Clupeidae sp</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Alosa aestivalis;Alosa mediocris;Alosa alabamae;Alosa sapidissima;Alosa pseudoharengus;Alosa alosa</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alosa agone;Alosa chrysochloris;Brevoortia gunteri;Alosa pseudoharengus</t>
         </is>
       </c>
       <c r="H19">
-        <v>330</v>
+        <v>2203</v>
       </c>
       <c r="I19">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9e675ac5875629aa62e1afaedb00fbb9</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>97f21bce91e9ef9f2fb711a011b1a9aa</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>100</v>
       </c>
       <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Homo sapiens</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>eukaryotic synthetic construct;Homo sapiens</t>
+        <v>99.057</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="H20">
-        <v>122</v>
+        <v>330</v>
       </c>
       <c r="I20">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9e985443e4cd6cdec8bd0d1d325c53d9</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>9e675ac5875629aa62e1afaedb00fbb9</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>100</v>
       </c>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Urophycis sp</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Urophycis tenuis;Urophycis chuss;Urophycis regia</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Urophycis tenuis;Urophycis regia;Urophycis chuss</t>
+          <t>eukaryotic synthetic construct;Homo sapiens</t>
         </is>
       </c>
       <c r="H21">
-        <v>6732</v>
+        <v>122</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9f2355fd161fec0177a83045e771a239</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+          <t>9e985443e4cd6cdec8bd0d1d325c53d9</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>100</v>
       </c>
       <c r="C22">
         <v>100</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Trachurus trachurus</t>
+          <t>Urophycis sp</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Urophycis tenuis;Urophycis chuss;Urophycis regia</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Decapterus punctatus</t>
+          <t>Urophycis tenuis;Urophycis regia;Urophycis chuss</t>
         </is>
       </c>
       <c r="H22">
-        <v>105</v>
+        <v>6732</v>
       </c>
       <c r="I22">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>a3f747ef5c8d9003b5743035e78afcee</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>100</t>
+          <t>9f2355fd161fec0177a83045e771a239</t>
         </is>
       </c>
       <c r="C23">
-        <v>99.057</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Peprilus triacanthus</t>
+        <v>100</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Decapterus punctatus</t>
         </is>
       </c>
       <c r="H23">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="I23">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>a504d3d01c9cb7ff29e5fe2fa139d5ea</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>a3f747ef5c8d9003b5743035e78afcee</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>100</v>
       </c>
       <c r="C24">
         <v>99.057</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Stenotomus chrysops</t>
+          <t>Peprilus triacanthus</t>
         </is>
       </c>
       <c r="H24">
-        <v>539</v>
+        <v>223</v>
       </c>
       <c r="I24">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>b4f42eade7a87f2cd8f3968640d83f97</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>a504d3d01c9cb7ff29e5fe2fa139d5ea</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>100</v>
       </c>
       <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Paralichthys dentatus</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Paralichthys adspersus;Paralichthys dentatus</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Paralichthys dentatus;Paralichthys adspersus</t>
+        <v>99.057</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Stenotomus chrysops</t>
         </is>
       </c>
       <c r="H25">
-        <v>2889</v>
+        <v>539</v>
       </c>
       <c r="I25">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>b98d245c042075fa94c4a01ffd4f9db8</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>b4f42eade7a87f2cd8f3968640d83f97</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>100</v>
       </c>
       <c r="C26">
         <v>100</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Peprilus triacanthus</t>
+          <t>Paralichthys dentatus</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Peprilus triacanthus</t>
+          <t>Paralichthys adspersus;Paralichthys dentatus</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Peprilus burti;Peprilus triacanthus</t>
+          <t>Paralichthys dentatus;Paralichthys adspersus</t>
         </is>
       </c>
       <c r="H26">
-        <v>9027</v>
+        <v>2889</v>
       </c>
       <c r="I26">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>c030ecad0cd0504068af5f150dc7b103</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>b98d245c042075fa94c4a01ffd4f9db8</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>100</v>
       </c>
       <c r="C27">
         <v>100</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cottidae sp</t>
+          <t>Peprilus triacanthus</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dasycottus setiger;Myoxocephalus quadricornis;Gymnocanthus tricuspis;Myoxocephalus jaok;Cottiusculus nihonkaiensis;Myoxocephalus scorpius;Gymnocanthus herzensteini;Gymnocanthus intermedius;Icelus spatula;Enophrys diceraus</t>
+          <t>Peprilus triacanthus</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Zesticelus profundorum;Artediellus pacificus;Gymnocanthus detrisus;Gymnocanthus pistilliger;Blepsias cirrhosus;Enophrys bison;Myoxocephalus stelleri;Myoxocephalus brandtii;Myoxocephalus jaok</t>
+          <t>Peprilus burti;Peprilus triacanthus</t>
         </is>
       </c>
       <c r="H27">
-        <v>318</v>
+        <v>9027</v>
       </c>
       <c r="I27">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ref2</t>
-        </is>
+          <t>c030ecad0cd0504068af5f150dc7b103</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>100</v>
       </c>
       <c r="C28">
         <v>100</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Larus sp</t>
+          <t>Cottidae sp</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Dasycottus setiger;Myoxocephalus quadricornis;Gymnocanthus tricuspis;Myoxocephalus jaok;Cottiusculus nihonkaiensis;Myoxocephalus scorpius;Gymnocanthus herzensteini;Gymnocanthus intermedius;Icelus spatula;Enophrys diceraus</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Larus hyperboreus;Larus canus;Larus brachyrhynchus;Larus vegae;Larus smithsonianus;Chroicocephalus ridibundus</t>
+          <t>Zesticelus profundorum;Artediellus pacificus;Gymnocanthus detrisus;Gymnocanthus pistilliger;Blepsias cirrhosus;Enophrys bison;Myoxocephalus stelleri;Myoxocephalus brandtii;Myoxocephalus jaok</t>
         </is>
       </c>
       <c r="H28">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="I28">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>c9bb5d5fc530c1dca2f73a53bb77141c</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>100</t>
+          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
         </is>
       </c>
       <c r="C29">
         <v>100</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Gadus morhua or Melanogrammus aeglefinus</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Gadus morhua;Gadus macrocephalus;Arctogadus glacialis;Merlangius merlangus;Gadus chalcogrammus</t>
-        </is>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Gadus morhua</t>
+          <t>Larus hyperboreus;Larus canus;Larus brachyrhynchus;Larus vegae;Larus smithsonianus;Chroicocephalus ridibundus</t>
         </is>
       </c>
       <c r="H29">
-        <v>5773</v>
+        <v>228</v>
       </c>
       <c r="I29">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cd9222c2008ba64f46a02935a6289518</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>c9bb5d5fc530c1dca2f73a53bb77141c</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>100</v>
       </c>
       <c r="C30">
-        <v>99.057</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Hippoglossina oblonga</t>
+        <v>100</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Gadus morhua or Melanogrammus aeglefinus</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Gadus morhua;Gadus macrocephalus;Arctogadus glacialis;Merlangius merlangus;Gadus chalcogrammus</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Gadus morhua</t>
         </is>
       </c>
       <c r="H30">
-        <v>78</v>
+        <v>5773</v>
       </c>
       <c r="I30">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>d26fe7b35e96761f43efea7dd9e9d99f</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>cd9222c2008ba64f46a02935a6289518</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>100</v>
       </c>
       <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Anguilla rostrata</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Anguilla rostrata;Anguilla mossambica;Anguilla malgumora;Anguilla bicolor;Anguilla australis;Anguilla anguilla</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Anguilla rostrata;Anguilla australis;Anguilla anguilla</t>
+        <v>99.057</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Hippoglossina oblonga</t>
         </is>
       </c>
       <c r="H31">
-        <v>1023</v>
+        <v>78</v>
       </c>
       <c r="I31">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>de8339905c2655847248b3084379b474</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>d26fe7b35e96761f43efea7dd9e9d99f</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>100</v>
       </c>
       <c r="C32">
         <v>100</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Anguilla rostrata</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Anguilla rostrata;Anguilla mossambica;Anguilla malgumora;Anguilla bicolor;Anguilla australis;Anguilla anguilla</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus;Brevoortia patronus</t>
+          <t>Anguilla rostrata;Anguilla australis;Anguilla anguilla</t>
         </is>
       </c>
       <c r="H32">
-        <v>56</v>
+        <v>1023</v>
       </c>
       <c r="I32">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>e7240a28d05a52722a7570029c9a880b</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>de8339905c2655847248b3084379b474</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>100</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Brevoortia tyrannus</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Homo sapiens;Pan troglodytes</t>
+          <t>Brevoortia tyrannus;Brevoortia patronus</t>
         </is>
       </c>
       <c r="H33">
-        <v>460</v>
+        <v>56</v>
       </c>
       <c r="I33">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ea364c182199815b78fc2630a9b4d6be</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>e7240a28d05a52722a7570029c9a880b</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>100</v>
       </c>
       <c r="C34">
         <v>100</v>
@@ -1455,192 +1360,215 @@
           <t>Homo sapiens</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Pristipomoides typus;Caesio cuning</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Homo sapiens;Pan troglodytes</t>
         </is>
       </c>
       <c r="H34">
-        <v>25057</v>
+        <v>460</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ed00c11476e9a07d3441cb0a1073d3ab</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>ea364c182199815b78fc2630a9b4d6be</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>100</v>
       </c>
       <c r="C35">
         <v>100</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Etropus microstomus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Etropus microstomus</t>
+          <t>Pristipomoides typus;Caesio cuning</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Etropus microstomus;Citharichthys stigmaeus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="H35">
-        <v>658</v>
+        <v>25057</v>
       </c>
       <c r="I35">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>f330e9fc8ac0b4fa01bf42c732e0c211</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>ed00c11476e9a07d3441cb0a1073d3ab</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>100</v>
       </c>
       <c r="C36">
         <v>100</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cynoscion regalis</t>
+          <t>Etropus microstomus</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Cynoscion regalis;Cynoscion arenarius</t>
+          <t>Etropus microstomus</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cynoscion regalis;Cynoscion arenarius</t>
+          <t>Etropus microstomus;Citharichthys stigmaeus</t>
         </is>
       </c>
       <c r="H36">
-        <v>3007</v>
+        <v>658</v>
       </c>
       <c r="I36">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>fe4a925833d96a18c2fdeac0dd07904e</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>f330e9fc8ac0b4fa01bf42c732e0c211</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>100</v>
       </c>
       <c r="C37">
         <v>100</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hippoglossoides platessoides or Pseudopleuronectes americanus</t>
+          <t>Cynoscion regalis</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hippoglossoides platessoides;Pseudopleuronectes americanus</t>
+          <t>Cynoscion regalis;Cynoscion arenarius</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hippoglossoides platessoides;Pseudopleuronectes americanus</t>
+          <t>Cynoscion regalis;Cynoscion arenarius</t>
         </is>
       </c>
       <c r="H37">
-        <v>47</v>
+        <v>3007</v>
       </c>
       <c r="I37">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2c9521bc9659f75133d08270bc0050e0</t>
+          <t>fe4a925833d96a18c2fdeac0dd07904e</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Hippoglossoides platessoides or Pseudopleuronectes americanus</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cololabis saira</t>
+          <t>Hippoglossoides platessoides;Pseudopleuronectes americanus</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cololabis saira</t>
+          <t>Hippoglossoides platessoides;Pseudopleuronectes americanus</t>
         </is>
       </c>
       <c r="H38">
-        <v>1424</v>
+        <v>47</v>
       </c>
       <c r="I38">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>641bcfcf840a10f05ff148673284c4bb</t>
+          <t>2c9521bc9659f75133d08270bc0050e0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Liparis gibbus;Liparis ochotensis</t>
+          <t>Cololabis saira</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Liparis gibbus;Liparis ochotensis;Liparis bathyarcticus</t>
+          <t>Cololabis saira</t>
         </is>
       </c>
       <c r="H39">
-        <v>955</v>
+        <v>1424</v>
       </c>
       <c r="I39">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>641bcfcf840a10f05ff148673284c4bb</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Liparis gibbus;Liparis ochotensis</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Liparis gibbus;Liparis ochotensis;Liparis bathyarcticus</t>
+        </is>
+      </c>
+      <c r="H40">
+        <v>955</v>
+      </c>
+      <c r="I40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>a9eda054f583e2a3bc9e14961cd6befc</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Schizocardium brasiliense</t>
         </is>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>239</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>40</v>
       </c>
     </row>
